--- a/中介模型.xlsx
+++ b/中介模型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\毕业论文库\中介效应\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProgram\biye\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EC67CE-A63C-4FF7-8D24-0A9BE35F91B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154C3FC6-7BE2-46AC-BE38-438A5E8720DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{8AE12DB4-FA46-4F7E-B434-A5508D382A0D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{8AE12DB4-FA46-4F7E-B434-A5508D382A0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="250">
   <si>
     <t>type</t>
   </si>
@@ -772,6 +772,10 @@
   </si>
   <si>
     <t>ETI性创伤</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1138,13 +1142,13 @@
   <dimension ref="A1:BE138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>171</v>
       </c>
@@ -1317,7 +1321,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1490,7 +1494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1648,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1821,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1925,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2098,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2271,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2375,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2479,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2652,7 +2656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2756,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2860,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2964,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3122,7 +3126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -3226,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -3363,7 +3367,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -3497,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -3658,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3792,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3929,7 +3933,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -4066,7 +4070,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -4203,7 +4207,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -4340,7 +4344,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -4477,7 +4481,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -4614,7 +4618,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -4751,7 +4755,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -4888,7 +4892,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>149</v>
       </c>
@@ -5025,7 +5029,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -5198,7 +5202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -5335,7 +5339,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -5472,7 +5476,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>150</v>
       </c>
@@ -5609,7 +5613,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>151</v>
       </c>
@@ -5740,7 +5744,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -5877,7 +5881,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -6050,7 +6054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -6181,7 +6185,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -6315,7 +6319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -6449,7 +6453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -6583,7 +6587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -6714,7 +6718,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -6845,7 +6849,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -6976,7 +6980,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -7107,7 +7111,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -7265,7 +7269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -7396,7 +7400,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -7557,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -7688,7 +7692,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -7819,7 +7823,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -7950,7 +7954,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -8081,7 +8085,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -8254,7 +8258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -8385,7 +8389,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -8516,7 +8520,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -8647,7 +8651,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -8778,7 +8782,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -8915,7 +8919,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -9046,7 +9050,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -9219,7 +9223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -9386,7 +9390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -9553,7 +9557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -9720,7 +9724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -9878,7 +9882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -10045,7 +10049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -10203,7 +10207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -10370,7 +10374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -10543,7 +10547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -10698,7 +10702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -10871,7 +10875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -11044,7 +11048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -11211,7 +11215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -11378,7 +11382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -11536,7 +11540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -11703,7 +11707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -11861,7 +11865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -12028,7 +12032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>153</v>
       </c>
@@ -12183,7 +12187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>154</v>
       </c>
@@ -12338,7 +12342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -12511,7 +12515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -12678,7 +12682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -12845,7 +12849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -12949,7 +12953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -13116,7 +13120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -13283,7 +13287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -13450,7 +13454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -13617,7 +13621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -13790,7 +13794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -13957,7 +13961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -14124,7 +14128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -14291,7 +14295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -14452,7 +14456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -14610,7 +14614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -14768,7 +14772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -14914,7 +14918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -15075,7 +15079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -15248,7 +15252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -15421,7 +15425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -15579,7 +15583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -15752,7 +15756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -15925,7 +15929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -16098,7 +16102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -16271,7 +16275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -16444,7 +16448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -16457,8 +16461,8 @@
       <c r="D103">
         <v>26</v>
       </c>
-      <c r="E103">
-        <v>9</v>
+      <c r="E103" t="s">
+        <v>249</v>
       </c>
       <c r="F103">
         <v>26</v>
@@ -16617,7 +16621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -16790,7 +16794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -16963,7 +16967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -17094,7 +17098,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -17261,7 +17265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>111</v>
       </c>
@@ -17434,7 +17438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -17607,7 +17611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>113</v>
       </c>
@@ -17738,7 +17742,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -17869,7 +17873,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -18042,7 +18046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>117</v>
       </c>
@@ -18173,7 +18177,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="114" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -18304,7 +18308,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="115" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>120</v>
       </c>
@@ -18435,7 +18439,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="116" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>121</v>
       </c>
@@ -18566,7 +18570,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="117" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>122</v>
       </c>
@@ -18697,7 +18701,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="118" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>123</v>
       </c>
@@ -18828,7 +18832,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="119" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -18959,7 +18963,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="120" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>127</v>
       </c>
@@ -19090,7 +19094,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="121" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>128</v>
       </c>
@@ -19221,7 +19225,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="122" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>130</v>
       </c>
@@ -19352,7 +19356,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="123" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>132</v>
       </c>
@@ -19483,7 +19487,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="124" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>134</v>
       </c>
@@ -19656,7 +19660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>135</v>
       </c>
@@ -19829,7 +19833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>136</v>
       </c>
@@ -20002,7 +20006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>137</v>
       </c>
@@ -20175,7 +20179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>138</v>
       </c>
@@ -20348,7 +20352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>139</v>
       </c>
@@ -20506,7 +20510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>140</v>
       </c>
@@ -20664,7 +20668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>141</v>
       </c>
@@ -20822,7 +20826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>142</v>
       </c>
@@ -20980,7 +20984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>143</v>
       </c>
@@ -21138,7 +21142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>144</v>
       </c>
@@ -21296,7 +21300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>145</v>
       </c>
@@ -21454,7 +21458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>146</v>
       </c>
@@ -21612,7 +21616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>147</v>
       </c>
@@ -21785,7 +21789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>148</v>
       </c>
